--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiathuemuanhaxh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiathuemuanhaxh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F27305-F8B8-4ACE-A577-0CAD3504E6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4691703-2749-4457-875E-B4C6434FDD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4170" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Tên đường giới hạn khu vực</t>
-  </si>
-  <si>
-    <t>Loại đất</t>
-  </si>
-  <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
-    <t>Giá đất tại bảng</t>
-  </si>
-  <si>
-    <t>Giá đất cụ thể</t>
-  </si>
-  <si>
-    <t>Hệ số điều chỉnh</t>
-  </si>
-  <si>
-    <t>Hoàng Hoa Thám</t>
-  </si>
-  <si>
-    <t>Thổ cư</t>
-  </si>
-  <si>
-    <t>Lê Văn Lương</t>
-  </si>
-  <si>
-    <t>Trong Ngõ</t>
-  </si>
-  <si>
-    <t>Mặt Đường</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Đơn vị thuê</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Giá bán</t>
+  </si>
+  <si>
+    <t>Giá thuê</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Mã số nhà ( Mã số trong danh mục nhà )</t>
+  </si>
+  <si>
+    <t>240104464603</t>
   </si>
 </sst>
 </file>
@@ -94,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,79 +402,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>6000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiathuemuanhaxh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiathuemuanhaxh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4691703-2749-4457-875E-B4C6434FDD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E1694-6F62-420C-8EF2-8D11DE1FC361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Đơn vị thuê</t>
   </si>
@@ -45,10 +45,22 @@
     <t>m2</t>
   </si>
   <si>
-    <t>Mã số nhà ( Mã số trong danh mục nhà )</t>
-  </si>
-  <si>
-    <t>240104464603</t>
+    <t>Tên nhà</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Nhà ở xã hội</t>
+  </si>
+  <si>
+    <t>Nhà ở xã hội Số 1 Nghi Tàm</t>
+  </si>
+  <si>
+    <t>Nhà ở xã hội Số 1 Phan Đình Phùng</t>
+  </si>
+  <si>
+    <t>Nhà ở xã hội Số 1 Trần Hưng Đạo</t>
   </si>
 </sst>
 </file>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +429,7 @@
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -433,10 +445,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -445,10 +460,53 @@
         <v>5</v>
       </c>
       <c r="D2">
+        <v>500000000</v>
+      </c>
+      <c r="E2">
+        <v>6000000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>6</v>
+      <c r="D3">
+        <v>500000000</v>
+      </c>
+      <c r="E3">
+        <v>6000000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>500000000</v>
+      </c>
+      <c r="E4">
+        <v>6000000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiathuemuanhaxh.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiathuemuanhaxh.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E1694-6F62-420C-8EF2-8D11DE1FC361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0E1A4-02B1-47CC-B62A-95522232AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Đơn vị thuê</t>
   </si>
@@ -61,19 +61,30 @@
   </si>
   <si>
     <t>Nhà ở xã hội Số 1 Trần Hưng Đạo</t>
+  </si>
+  <si>
+    <t>GIÁ THUÊ MUA NHÀ XÃ HỘI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,13 +104,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,102 +458,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="5">
         <v>500000000</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="5">
         <v>6000000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="5">
         <v>500000000</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="5">
         <v>6000000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="5">
         <v>500000000</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="5">
         <v>6000000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:E1048576" xr:uid="{3A2293CD-194E-4FE0-BCE7-CF5E88FC2194}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>